--- a/HSTC Viability.xlsx
+++ b/HSTC Viability.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HSTC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05BE8F6F-0332-4DDA-9A14-BA5676432E26}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_F25DC773A252ABDACC1048A9519B73345BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0362CC-650F-4088-BAC9-BB411962AF91}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="59">
   <si>
     <t>Round</t>
   </si>
@@ -261,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EC29AE1-8908-4665-B662-630C29A3884B}" name="Table1" displayName="Table1" ref="A1:H115" totalsRowShown="0">
-  <autoFilter ref="A1:H115" xr:uid="{3EC29AE1-8908-4665-B662-630C29A3884B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EC29AE1-8908-4665-B662-630C29A3884B}" name="Table1" displayName="Table1" ref="A1:H112" totalsRowShown="0">
+  <autoFilter ref="A1:H112" xr:uid="{3EC29AE1-8908-4665-B662-630C29A3884B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{ED993E0B-CC80-4B44-990B-BBF95456CA23}" name="Round"/>
     <tableColumn id="2" xr3:uid="{51F0BD39-9F25-4ABC-A352-FE0C5EA44B2C}" name="Day"/>
@@ -540,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,30 +1547,33 @@
         <v>43</v>
       </c>
       <c r="H38">
-        <v>2399.9881624499999</v>
+        <v>2630.2566581250003</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H39">
-        <v>2860.5251538000002</v>
+        <v>1781.7465600749999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1573,19 +1587,19 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
         <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>1781.7465600749999</v>
+        <v>1534.7998032</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1599,19 +1613,19 @@
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
         <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H41">
-        <v>1534.7998032</v>
+        <v>1189.5317418750001</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1625,19 +1639,19 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42">
-        <v>1189.5317418750001</v>
+        <v>990.60365070000012</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1651,19 +1665,19 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H43">
-        <v>990.60365070000012</v>
+        <v>1029.63267</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1677,19 +1691,19 @@
         <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
         <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <v>1029.63267</v>
+        <v>1498.0754243000001</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,25 +1711,25 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45">
-        <v>1498.0754243000001</v>
+        <v>1686.2554080750001</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1729,19 +1743,19 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
         <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46">
-        <v>1686.2554080750001</v>
+        <v>1572.9841018750001</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1755,19 +1769,19 @@
         <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
         <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>1572.9841018750001</v>
+        <v>1661.6577646750002</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,19 +1795,19 @@
         <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H48">
-        <v>1661.6577646750002</v>
+        <v>815.90988670000002</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1807,19 +1821,19 @@
         <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49">
-        <v>815.90988670000002</v>
+        <v>752.75280307499997</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1833,19 +1847,19 @@
         <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H50">
-        <v>752.75280307499997</v>
+        <v>909.32225907500015</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,25 +1867,25 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51">
-        <v>909.32225907500015</v>
+        <v>1800.9271718749999</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1885,19 +1899,19 @@
         <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E52" t="s">
         <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H52">
-        <v>1800.9271718749999</v>
+        <v>1551.9746252000002</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1911,19 +1925,19 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" t="s">
         <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H53">
-        <v>1551.9746252000002</v>
+        <v>1561.3223518750001</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1937,19 +1951,19 @@
         <v>45</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54">
-        <v>1561.3223518750001</v>
+        <v>1223.0619488</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1963,19 +1977,19 @@
         <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H55">
-        <v>1223.0619488</v>
+        <v>1464.0673170749999</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1989,19 +2003,19 @@
         <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H56">
-        <v>1464.0673170749999</v>
+        <v>1513.4231199999999</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,25 +2023,25 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H57">
-        <v>1513.4231199999999</v>
+        <v>2109.8019146750003</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2041,19 +2055,19 @@
         <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E58" t="s">
         <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H58">
-        <v>2109.8019146750003</v>
+        <v>2000.9445468750002</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2067,19 +2081,19 @@
         <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
         <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H59">
-        <v>2000.9445468750002</v>
+        <v>2032.1215470750005</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,19 +2107,19 @@
         <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H60">
-        <v>2032.1215470750005</v>
+        <v>2204.1756267999999</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2119,19 +2133,19 @@
         <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
         <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>2204.1756267999999</v>
+        <v>1805.1776428000001</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,19 +2159,19 @@
         <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
         <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>1805.1776428000001</v>
+        <v>1307.4688587000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2165,25 +2179,25 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
         <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>1307.4688587000001</v>
+        <v>1749.0469420749998</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2197,19 +2211,19 @@
         <v>46</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E64" t="s">
         <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>1749.0469420749998</v>
+        <v>1573.5676996750001</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2223,19 +2237,19 @@
         <v>46</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E65" t="s">
         <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>1573.5676996750001</v>
+        <v>1169.7985090750001</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2249,19 +2263,19 @@
         <v>46</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>1169.7985090750001</v>
+        <v>921.82895407500018</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2275,19 +2289,19 @@
         <v>46</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E67" t="s">
         <v>48</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>921.82895407500018</v>
+        <v>991.01811999999995</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2301,19 +2315,19 @@
         <v>46</v>
       </c>
       <c r="D68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
         <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>991.01811999999995</v>
+        <v>911.89148507499999</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2321,25 +2335,25 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>46</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>911.89148507499999</v>
+        <v>1735.2381756749999</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,19 +2367,19 @@
         <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E70" t="s">
         <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1735.2381756749999</v>
+        <v>1509.856060075</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2379,19 +2393,19 @@
         <v>46</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
         <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>1509.856060075</v>
+        <v>1551.0696287999999</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2405,19 +2419,19 @@
         <v>46</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H72">
-        <v>1551.0696287999999</v>
+        <v>1528.4507246749999</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2431,19 +2445,19 @@
         <v>46</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H73">
-        <v>1528.4507246749999</v>
+        <v>1330.6681606750001</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2457,19 +2471,19 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H74">
-        <v>1330.6681606750001</v>
+        <v>1916.912791875</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2477,71 +2491,74 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
         <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H75">
-        <v>1916.912791875</v>
+        <v>1744.2537766875002</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="E76" t="s">
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H76">
-        <v>1689.2865826750001</v>
+        <v>1682.6986926750001</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H77">
-        <v>1799.2209707000002</v>
+        <v>1466.8443027000001</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2555,16 +2572,19 @@
         <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E78" t="s">
         <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <v>1228.7857547000001</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2578,16 +2598,19 @@
         <v>45</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>1069.6106746749999</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2601,815 +2624,848 @@
         <v>45</v>
       </c>
       <c r="D80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80">
+        <v>1079.6095075000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81">
+        <v>1485.2585043000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82">
+        <v>1602.8421132000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83">
+        <v>1634.7888656750001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" t="s">
         <v>54</v>
       </c>
-      <c r="E80" t="s">
-        <v>47</v>
-      </c>
-      <c r="F80" t="s">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>3</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>1737.4604300000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s">
         <v>55</v>
       </c>
-      <c r="E81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
-        <v>49</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>49</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85">
+        <v>1466.3654310750001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" t="s">
         <v>56</v>
       </c>
-      <c r="E82" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" t="s">
-        <v>50</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86">
+        <v>759.39622687500014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" t="s">
         <v>57</v>
       </c>
-      <c r="E83" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" t="s">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>3</v>
-      </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>45</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87">
+        <v>1477.1322188000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" t="s">
         <v>52</v>
       </c>
-      <c r="E84" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" t="s">
-        <v>49</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>3</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" t="s">
+        <v>49</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88">
+        <v>1647.8175150750001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" t="s">
         <v>53</v>
       </c>
-      <c r="E85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" t="s">
-        <v>50</v>
-      </c>
-      <c r="G85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>3</v>
-      </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
-        <v>45</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E89" t="s">
+        <v>47</v>
+      </c>
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89">
+        <v>1714.9374700000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" t="s">
         <v>54</v>
       </c>
-      <c r="E86" t="s">
-        <v>47</v>
-      </c>
-      <c r="F86" t="s">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>3</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87" t="s">
-        <v>45</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E90" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90">
+        <v>1679.6373675</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" t="s">
         <v>55</v>
       </c>
-      <c r="E87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" t="s">
-        <v>49</v>
-      </c>
-      <c r="G87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91">
+        <v>1722.0180987000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D92" t="s">
         <v>56</v>
       </c>
-      <c r="E88" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" t="s">
-        <v>50</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>3</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
-        <v>45</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92">
+        <v>1633.7750688000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" t="s">
         <v>57</v>
       </c>
-      <c r="E89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" t="s">
-        <v>51</v>
-      </c>
-      <c r="G89" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>3</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>45</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+      <c r="H93">
+        <v>1708.4584352000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" t="s">
         <v>52</v>
       </c>
-      <c r="E90" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>3</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E94" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94">
+        <v>1995.2455510750003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" t="s">
         <v>53</v>
       </c>
-      <c r="E91" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" t="s">
-        <v>50</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>3</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>45</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E95" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" t="s">
+        <v>50</v>
+      </c>
+      <c r="G95" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95">
+        <v>1929.6638700000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" t="s">
         <v>54</v>
       </c>
-      <c r="E92" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" t="s">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>3</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E96" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96">
+        <v>1922.554667075</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" t="s">
         <v>55</v>
       </c>
-      <c r="E93" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" t="s">
-        <v>49</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>3</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>45</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" t="s">
+        <v>49</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97">
+        <v>2169.696787675</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
         <v>56</v>
       </c>
-      <c r="E94" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" t="s">
-        <v>50</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>3</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98">
+        <v>2005.2730500750001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" t="s">
         <v>57</v>
       </c>
-      <c r="E95" t="s">
-        <v>48</v>
-      </c>
-      <c r="F95" t="s">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>3</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99">
+        <v>2095.7832675000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s">
         <v>52</v>
       </c>
-      <c r="E96" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>3</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>46</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E100" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100">
+        <v>1817.9435716750002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" t="s">
         <v>53</v>
       </c>
-      <c r="E97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" t="s">
-        <v>50</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>3</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>46</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" t="s">
+        <v>50</v>
+      </c>
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101">
+        <v>1650.8653227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" t="s">
         <v>54</v>
       </c>
-      <c r="E98" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" t="s">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>3</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" t="s">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102">
+        <v>1728.9067883</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" t="s">
         <v>55</v>
       </c>
-      <c r="E99" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" t="s">
-        <v>49</v>
-      </c>
-      <c r="G99" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>3</v>
-      </c>
-      <c r="B100">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>46</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103">
+        <v>2044.7511456750003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" t="s">
         <v>56</v>
       </c>
-      <c r="E100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" t="s">
-        <v>50</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>3</v>
-      </c>
-      <c r="B101">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E104" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104">
+        <v>1022.633576875</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" t="s">
         <v>57</v>
       </c>
-      <c r="E101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" t="s">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>3</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105">
+        <v>935.82919167499995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" t="s">
         <v>52</v>
       </c>
-      <c r="E102" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" t="s">
-        <v>49</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>3</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>46</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E106" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" t="s">
+        <v>49</v>
+      </c>
+      <c r="G106" t="s">
+        <v>37</v>
+      </c>
+      <c r="H106">
+        <v>1756.1938592000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" t="s">
         <v>53</v>
       </c>
-      <c r="E103" t="s">
-        <v>47</v>
-      </c>
-      <c r="F103" t="s">
-        <v>50</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>3</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E107" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" t="s">
+        <v>50</v>
+      </c>
+      <c r="G107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107">
+        <v>1711.9947450750001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" t="s">
         <v>54</v>
       </c>
-      <c r="E104" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" t="s">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>3</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105" t="s">
-        <v>46</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E108" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H108">
+        <v>1660.3775692000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" t="s">
         <v>55</v>
       </c>
-      <c r="E105" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" t="s">
-        <v>49</v>
-      </c>
-      <c r="G105" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>3</v>
-      </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106" t="s">
-        <v>46</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" t="s">
+        <v>49</v>
+      </c>
+      <c r="G109" t="s">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>1857.416973675</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" t="s">
         <v>56</v>
       </c>
-      <c r="E106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" t="s">
-        <v>50</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>3</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107" t="s">
-        <v>46</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" t="s">
+        <v>50</v>
+      </c>
+      <c r="G110" t="s">
+        <v>41</v>
+      </c>
+      <c r="H110">
+        <v>1785.7189675000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" t="s">
         <v>57</v>
       </c>
-      <c r="E107" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" t="s">
-        <v>51</v>
-      </c>
-      <c r="G107" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>3</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>46</v>
-      </c>
-      <c r="D108" t="s">
-        <v>52</v>
-      </c>
-      <c r="E108" t="s">
-        <v>47</v>
-      </c>
-      <c r="F108" t="s">
-        <v>49</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>3</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>46</v>
-      </c>
-      <c r="D109" t="s">
-        <v>53</v>
-      </c>
-      <c r="E109" t="s">
-        <v>47</v>
-      </c>
-      <c r="F109" t="s">
-        <v>50</v>
-      </c>
-      <c r="G109" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>3</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
-        <v>46</v>
-      </c>
-      <c r="D110" t="s">
-        <v>54</v>
-      </c>
-      <c r="E110" t="s">
-        <v>47</v>
-      </c>
-      <c r="F110" t="s">
-        <v>51</v>
-      </c>
-      <c r="G110" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>3</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>46</v>
-      </c>
-      <c r="D111" t="s">
-        <v>55</v>
-      </c>
       <c r="E111" t="s">
         <v>48</v>
       </c>
       <c r="F111" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H111">
+        <v>1897.8426706750001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="s">
         <v>46</v>
       </c>
       <c r="D112" t="s">
-        <v>56</v>
-      </c>
-      <c r="E112" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F112" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>3</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
-        <v>46</v>
-      </c>
-      <c r="D113" t="s">
-        <v>57</v>
-      </c>
-      <c r="E113" t="s">
-        <v>48</v>
-      </c>
-      <c r="F113" t="s">
-        <v>51</v>
-      </c>
-      <c r="G113" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>3</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>46</v>
-      </c>
-      <c r="D114" t="s">
-        <v>58</v>
-      </c>
-      <c r="F114" t="s">
         <v>43</v>
       </c>
-      <c r="G114" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>3</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>46</v>
-      </c>
-      <c r="D115" t="s">
-        <v>58</v>
-      </c>
-      <c r="F115" t="s">
-        <v>43</v>
-      </c>
-      <c r="G115" t="s">
-        <v>43</v>
+      <c r="H112">
+        <v>1865.0147355000001</v>
       </c>
     </row>
   </sheetData>
